--- a/Assets/Excel/Test2.xlsx
+++ b/Assets/Excel/Test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YK\Graduation\Graduation-Project\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC025A3F-1217-47EA-B838-23757CF0485E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2B7A9C-5214-4B36-B2DF-D5853EA15F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22170" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero1" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
